--- a/biology/Biologie cellulaire et moléculaire/Filamine_C/Filamine_C.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Filamine_C/Filamine_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La filamine C (appelée aussi ABP 280)  est l'une des filamines, protéine musculaire se fixant sur l'actine. Son gène est le FLNC  situé sur le chromosome 7 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est synthétisée dans le muscle squelettique et dans le cœur[5]. Elle se fixe sur plusieurs protéines musculaires, dont l'actine, la myotiline, l'intégrine bêta 1[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est synthétisée dans le muscle squelettique et dans le cœur. Elle se fixe sur plusieurs protéines musculaires, dont l'actine, la myotiline, l'intégrine bêta 1.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation du gène entraîne une forme de myopathie[7] essentiellement distale[8], avec une atteinte cardiaque dans un tiers des cas[9]. D'autres mutations entraînent une atteinte cardiaque exclusive à type de cardiomyopathie dilatée avec un risque élevé de mort subite[10] de manière non corrélé avec la fraction d'éjection[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation du gène entraîne une forme de myopathie essentiellement distale, avec une atteinte cardiaque dans un tiers des cas. D'autres mutations entraînent une atteinte cardiaque exclusive à type de cardiomyopathie dilatée avec un risque élevé de mort subite de manière non corrélé avec la fraction d'éjection.
 </t>
         </is>
       </c>
